--- a/template/template_kabupaten.xlsx
+++ b/template/template_kabupaten.xlsx
@@ -5,37 +5,61 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. BISMILLAH SKRIPSI\05. Pengolahan\4.4 Dashboard\4.6 Backup\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. BISMILLAH SKRIPSI\05. Pengolahan\4.4 Dashboard\Frontend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C592F8-022A-4297-B43C-7BDC0B2F0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09A7D0-5828-4B74-A580-3B1D3F89274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data_aggregat" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="jumlah">data_aggregat!$A$1:$C$6</definedName>
+    <definedName name="luas">data_aggregat!$A$1:$B$6</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{C2E1A048-AB25-4BFE-A227-D6F303DF6D02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+akan terisi otomatis</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Bantul</t>
-  </si>
-  <si>
-    <t>Gunungkidul</t>
-  </si>
-  <si>
-    <t>Kota Yogyakarta</t>
-  </si>
-  <si>
-    <t>Kulon Progo</t>
-  </si>
-  <si>
-    <t>Sleman</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>lst</t>
   </si>
@@ -92,6 +116,30 @@
   </si>
   <si>
     <t>kabupaten</t>
+  </si>
+  <si>
+    <t>Kabkot</t>
+  </si>
+  <si>
+    <t>BANTUL</t>
+  </si>
+  <si>
+    <t>GUNUNGKIDUL</t>
+  </si>
+  <si>
+    <t>KOTA YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>KULON PROGO</t>
+  </si>
+  <si>
+    <t>SLEMAN</t>
+  </si>
+  <si>
+    <t>Luas Wilayah</t>
+  </si>
+  <si>
+    <t>Jumlah Penduduk</t>
   </si>
 </sst>
 </file>
@@ -101,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,16 +188,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,12 +254,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,7 +283,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -184,10 +296,31 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1997AC54-19D8-4B1E-8311-529DE6CF7122}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{618AD567-8E1F-4716-841E-B597251DBF70}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,161 +532,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="16">
+        <v>3.3565540170000001</v>
+      </c>
+      <c r="M2" s="16">
+        <v>65.471559040000002</v>
+      </c>
+      <c r="N2" s="16">
+        <v>120</v>
+      </c>
+      <c r="O2" s="16">
+        <v>1.4025357279999999</v>
+      </c>
+      <c r="P2" s="17" t="e">
+        <f>N2/VLOOKUP(A2,luas,2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="17" t="e">
+        <f>N2/VLOOKUP(A2,jumlah,3,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="16">
+        <v>7.2927866359999998</v>
+      </c>
+      <c r="M3" s="16">
+        <v>209.47365809999999</v>
+      </c>
+      <c r="N3" s="16">
+        <v>79</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2.842124224</v>
+      </c>
+      <c r="P3" s="17" t="e">
+        <f>N3/VLOOKUP(A3,luas,2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="17" t="e">
+        <f>N3/VLOOKUP(A3,jumlah,3,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="16">
+        <v>2.0829316260000001</v>
+      </c>
+      <c r="M4" s="16">
+        <v>104</v>
+      </c>
+      <c r="N4" s="16">
+        <v>119</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0.2754688159</v>
+      </c>
+      <c r="P4" s="17" t="e">
+        <f>N4/VLOOKUP(A4,luas,2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="17" t="e">
+        <f>N4/VLOOKUP(A4,jumlah,3,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="16">
+        <v>5.7775127499999996</v>
+      </c>
+      <c r="M5" s="16">
+        <v>81.487645520000001</v>
+      </c>
+      <c r="N5" s="16">
+        <v>65</v>
+      </c>
+      <c r="O5" s="16">
+        <v>1.9004838020000001</v>
+      </c>
+      <c r="P5" s="17" t="e">
+        <f>N5/VLOOKUP(A5,luas,2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="17" t="e">
+        <f>N5/VLOOKUP(A5,jumlah,3,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="16">
+        <v>2.8190649190000001</v>
+      </c>
+      <c r="M6" s="16">
+        <v>199.2908797</v>
+      </c>
+      <c r="N6" s="16">
+        <v>135</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1.519220324</v>
+      </c>
+      <c r="P6" s="17" t="e">
+        <f>N6/VLOOKUP(A6,luas,2,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="17" t="e">
+        <f>N6/VLOOKUP(A6,jumlah,3,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4B7127-E590-4372-8A22-A8233B2FD20E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
